--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV117-001 - Jenis Porto - Reksadana View Detil.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV117-001 - Jenis Porto - Reksadana View Detil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9EC91-2C23-46E9-A120-88108694E84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6148715D-26CB-4B5D-9D48-D74C0F1F9FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,13 +88,13 @@
     <t>View dapat dilakukan dengan baik</t>
   </si>
   <si>
-    <t>R07</t>
-  </si>
-  <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 20/21 - Analis Investasi/Asisten Investasi;
 Kode Jenis Porto : R07</t>
+  </si>
+  <si>
+    <t>R91</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4">
         <v>31246</v>
@@ -595,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
